--- a/resources/generated_datasets/workflow_dataset/code_parameters.xlsx
+++ b/resources/generated_datasets/workflow_dataset/code_parameters.xlsx
@@ -131,10 +131,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="8377332387650101123" xfId="1" hidden="0"/>
-    <cellStyle name="-6585608929328970320" xfId="2" hidden="0"/>
-    <cellStyle name="6679189703510366470" xfId="3" hidden="0"/>
-    <cellStyle name="8384517440268896387" xfId="4" hidden="0"/>
+    <cellStyle name="6147344236458794012" xfId="1" hidden="0"/>
+    <cellStyle name="5302964805020700047" xfId="2" hidden="0"/>
+    <cellStyle name="827051175824177073" xfId="3" hidden="0"/>
+    <cellStyle name="7422524228239151971" xfId="4" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
